--- a/Documentation/ProjectDocumentation/Work Plan.xlsx
+++ b/Documentation/ProjectDocumentation/Work Plan.xlsx
@@ -8,22 +8,22 @@
     <sheet state="visible" name="Defect Log" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="Z_E722A242_03C8_472A_A053_EFB3281192B8_.wvu.FilterData">'Defect Log'!$A$1:$H$56</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_6EB8305A_EB85_4F04_9155_A670A3D45DFB_.wvu.FilterData">'Defect Log'!$A$1:$H$56</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E722A242-03C8-472A-A053-EFB3281192B8}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6EB8305A-EB85-4F04-9155-A670A3D45DFB}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="kRRECKGBVmmsKLuaPd/my+Srfp8L/z0nVhdOhgXWBQE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="tD2iFI/NYqo6olE2O6nv/bU+OP8dNUFwXAWTbXRyDxU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>&lt;</t>
   </si>
@@ -109,16 +109,13 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>diseño</t>
+    <t>deploy</t>
   </si>
   <si>
     <t>David</t>
   </si>
   <si>
     <t>Architecture test</t>
-  </si>
-  <si>
-    <t>documentación</t>
   </si>
   <si>
     <t>Create repository</t>
@@ -145,9 +142,6 @@
     <t>Architecture configuration</t>
   </si>
   <si>
-    <t>analisis</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -155,12 +149,6 @@
   </si>
   <si>
     <t>Log in</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Implementación</t>
   </si>
   <si>
     <t>Browse products</t>
@@ -181,7 +169,7 @@
     <t>Create product</t>
   </si>
   <si>
-    <t>Upcoming</t>
+    <t>Add Report</t>
   </si>
   <si>
     <t>Browse report</t>
@@ -193,7 +181,7 @@
     <t>FT1</t>
   </si>
   <si>
-    <t>Browse admin</t>
+    <t>Browse admins</t>
   </si>
   <si>
     <t>Delete admin</t>
@@ -268,13 +256,16 @@
     <t>Detection</t>
   </si>
   <si>
-    <t>Delete comments in Spanish</t>
+    <t>Comments in Spanish</t>
   </si>
   <si>
     <t>Cosmetic</t>
   </si>
   <si>
     <t>Implementation</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>UI</t>
@@ -290,6 +281,9 @@
   </si>
   <si>
     <t>Urgent</t>
+  </si>
+  <si>
+    <t>Analisis</t>
   </si>
   <si>
     <t>Segurity</t>
@@ -322,9 +316,6 @@
     <t>Necessary</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Failures with React context for product and admin user hooks</t>
   </si>
   <si>
@@ -332,6 +323,9 @@
   </si>
   <si>
     <t>Production</t>
+  </si>
+  <si>
+    <t>Lack of more comments to the code</t>
   </si>
 </sst>
 </file>
@@ -522,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -612,6 +606,9 @@
     <xf borderId="0" fillId="9" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -649,7 +646,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -657,9 +654,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -673,14 +667,20 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -764,9 +764,6 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -777,8 +774,14 @@
     <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1000,11 +1003,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1677495843"/>
-        <c:axId val="1930717068"/>
+        <c:axId val="712497711"/>
+        <c:axId val="997932018"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1677495843"/>
+        <c:axId val="712497711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,10 +1059,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930717068"/>
+        <c:crossAx val="997932018"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1930717068"/>
+        <c:axId val="997932018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1137,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1677495843"/>
+        <c:crossAx val="712497711"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1750,12 +1753,14 @@
         <f t="shared" ref="R5:R12" si="11">Q5/$G$12</f>
         <v>0.09677419355</v>
       </c>
-      <c r="S5" s="29"/>
+      <c r="S5" s="31">
+        <v>35.0</v>
+      </c>
       <c r="T5" s="26">
         <f t="shared" ref="T5:T12" si="12">T4+S5</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="31">
+        <v>35</v>
+      </c>
+      <c r="U5" s="32">
         <v>45104.0</v>
       </c>
       <c r="V5" s="4"/>
@@ -1781,12 +1786,12 @@
         <v>27</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="33">
         <v>5.0</v>
       </c>
       <c r="G6" s="26">
@@ -1836,12 +1841,14 @@
         <f t="shared" si="11"/>
         <v>0.2580645161</v>
       </c>
-      <c r="S6" s="29"/>
+      <c r="S6" s="31">
+        <v>120.0</v>
+      </c>
       <c r="T6" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="31">
+        <v>155</v>
+      </c>
+      <c r="U6" s="32">
         <v>45105.0</v>
       </c>
       <c r="V6" s="4"/>
@@ -1861,18 +1868,18 @@
         <v>13.0</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="33">
         <v>1.0</v>
       </c>
       <c r="G7" s="26">
@@ -1922,12 +1929,14 @@
         <f t="shared" si="11"/>
         <v>0.2903225806</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="24">
+        <v>10.0</v>
+      </c>
       <c r="T7" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="31">
+        <v>165</v>
+      </c>
+      <c r="U7" s="32">
         <v>45104.0</v>
       </c>
       <c r="V7" s="4"/>
@@ -1948,18 +1957,18 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="33">
         <v>3.0</v>
       </c>
       <c r="G8" s="26">
@@ -2009,21 +2018,23 @@
         <f t="shared" si="11"/>
         <v>0.3870967742</v>
       </c>
-      <c r="S8" s="29"/>
+      <c r="S8" s="31">
+        <v>25.0</v>
+      </c>
       <c r="T8" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="31">
+        <v>190</v>
+      </c>
+      <c r="U8" s="32">
         <v>45104.0</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -2038,18 +2049,18 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="33">
         <v>2.0</v>
       </c>
       <c r="G9" s="26">
@@ -2099,24 +2110,26 @@
         <f t="shared" si="11"/>
         <v>0.4516129032</v>
       </c>
-      <c r="S9" s="29"/>
+      <c r="S9" s="31">
+        <v>15.0</v>
+      </c>
       <c r="T9" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="31">
+        <v>205</v>
+      </c>
+      <c r="U9" s="32">
         <v>45104.0</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="Y9" s="34" t="s">
+      <c r="Y9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="38"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -2135,18 +2148,18 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="33">
         <v>1.0</v>
       </c>
       <c r="G10" s="26">
@@ -2196,24 +2209,26 @@
         <f t="shared" si="11"/>
         <v>0.4838709677</v>
       </c>
-      <c r="S10" s="29"/>
+      <c r="S10" s="31">
+        <v>25.0</v>
+      </c>
       <c r="T10" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="31">
+        <v>230</v>
+      </c>
+      <c r="U10" s="32">
         <v>45105.0</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="Y10" s="38">
+      <c r="Y10" s="39">
         <v>1.0</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="40">
         <v>120.0</v>
       </c>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -2233,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>27</v>
@@ -2244,7 +2259,7 @@
       <c r="E11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="33">
         <v>8.0</v>
       </c>
       <c r="G11" s="26">
@@ -2294,24 +2309,26 @@
         <f t="shared" si="11"/>
         <v>0.7419354839</v>
       </c>
-      <c r="S11" s="29"/>
+      <c r="S11" s="31">
+        <v>30.0</v>
+      </c>
       <c r="T11" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="31">
+        <v>260</v>
+      </c>
+      <c r="U11" s="32">
         <v>45106.0</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="Y11" s="38">
+      <c r="Y11" s="39">
         <v>2.0</v>
       </c>
-      <c r="Z11" s="39">
+      <c r="Z11" s="40">
         <v>410.0</v>
       </c>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -2331,18 +2348,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="33">
         <v>8.0</v>
       </c>
       <c r="G12" s="26">
@@ -2392,24 +2409,26 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="S12" s="29"/>
+      <c r="S12" s="31">
+        <v>180.0</v>
+      </c>
       <c r="T12" s="26">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="31">
+        <v>440</v>
+      </c>
+      <c r="U12" s="32">
         <v>45106.0</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="Y12" s="38">
+      <c r="Y12" s="39">
         <v>3.0</v>
       </c>
-      <c r="Z12" s="39">
+      <c r="Z12" s="40">
         <v>770.0</v>
       </c>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -2424,38 +2443,38 @@
         <f>SUM(A12+1)</f>
         <v>5</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="3"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="41">
+      <c r="F13" s="42">
         <f>SUM(F5:F12)</f>
         <v>31</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="46"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="47"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="Y13" s="38">
+      <c r="Y13" s="39">
         <v>5.0</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="40">
         <v>908.0</v>
       </c>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -2470,10 +2489,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2507,10 +2526,10 @@
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="4"/>
-      <c r="Y14" s="38">
+      <c r="Y14" s="39">
         <v>8.0</v>
       </c>
-      <c r="Z14" s="47">
+      <c r="Z14" s="48">
         <v>1470.0</v>
       </c>
       <c r="AB14" s="4"/>
@@ -2528,18 +2547,18 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="33">
         <v>8.0</v>
       </c>
       <c r="G15" s="26">
@@ -2548,11 +2567,11 @@
       </c>
       <c r="H15" s="27">
         <f t="shared" ref="H15:H19" si="15">F15/$G$19</f>
-        <v>0.275862069</v>
+        <v>0.3076923077</v>
       </c>
       <c r="I15" s="27">
         <f t="shared" ref="I15:I19" si="16">I14+H15</f>
-        <v>0.275862069</v>
+        <v>0.3076923077</v>
       </c>
       <c r="J15" s="26">
         <f t="shared" ref="J15:J19" si="17">IF(F15=1,$Z$10,IF(F15=2,$Z$11,IF(F15=3,$Z$12,IF(F15=5,$Z$13,IF(F15=8,$Z$14,$Z$15)))))</f>
@@ -2562,39 +2581,43 @@
         <f t="shared" ref="K15:K19" si="18">K14+J15</f>
         <v>1470</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="49">
         <v>45107.0</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" ref="M15:M19" si="19">IF(C15="Complete",F15,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N15" s="26">
         <f t="shared" ref="N15:N19" si="20">N14+M15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O15" s="30">
         <f t="shared" ref="O15:O19" si="21">M15/$G$19</f>
-        <v>0</v>
+        <v>0.3076923077</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" ref="P15:P19" si="22">IF(C15="Complete",F15,IF(C15="Review",F15,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="26">
         <f t="shared" ref="Q15:Q19" si="23">Q14+P15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R15" s="30">
         <f t="shared" ref="R15:R19" si="24">Q15/$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="29"/>
+        <v>0.3076923077</v>
+      </c>
+      <c r="S15" s="31">
+        <v>120.0</v>
+      </c>
       <c r="T15" s="26">
         <f t="shared" ref="T15:T19" si="25">T14+S15</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="49"/>
+        <v>120</v>
+      </c>
+      <c r="U15" s="32">
+        <v>45107.0</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="Y15" s="50">
@@ -2603,8 +2626,8 @@
       <c r="Z15" s="51">
         <v>2370.0</v>
       </c>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -2619,13 +2642,13 @@
         <v>7.0</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>29</v>
@@ -2639,11 +2662,11 @@
       </c>
       <c r="H16" s="27">
         <f t="shared" si="15"/>
-        <v>0.1724137931</v>
+        <v>0.1923076923</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="16"/>
-        <v>0.4482758621</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="26">
         <f t="shared" si="17"/>
@@ -2653,46 +2676,50 @@
         <f t="shared" si="18"/>
         <v>2378</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="49">
         <v>45107.0</v>
       </c>
       <c r="M16" s="29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O16" s="30">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1923076923</v>
       </c>
       <c r="P16" s="29">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R16" s="30">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="24">
+        <v>60.0</v>
+      </c>
       <c r="T16" s="26">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="49"/>
+        <v>180</v>
+      </c>
+      <c r="U16" s="32">
+        <v>45110.0</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -2707,73 +2734,77 @@
         <v>9.0</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="53">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="15"/>
-        <v>0.275862069</v>
+        <v>0.1923076923</v>
       </c>
       <c r="I17" s="27">
         <f t="shared" si="16"/>
-        <v>0.724137931</v>
+        <v>0.6923076923</v>
       </c>
       <c r="J17" s="26">
         <f t="shared" si="17"/>
-        <v>1470</v>
+        <v>908</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="18"/>
-        <v>3848</v>
-      </c>
-      <c r="L17" s="48">
+        <v>3286</v>
+      </c>
+      <c r="L17" s="49">
         <v>45107.0</v>
       </c>
       <c r="M17" s="29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O17" s="30">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1923076923</v>
       </c>
       <c r="P17" s="29">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R17" s="30">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="44"/>
+        <v>0.6923076923</v>
+      </c>
+      <c r="S17" s="54">
+        <v>60.0</v>
+      </c>
       <c r="T17" s="26">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="54"/>
+        <v>240</v>
+      </c>
+      <c r="U17" s="32">
+        <v>45110.0</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="AB17" s="4"/>
@@ -2792,31 +2823,31 @@
         <v>10.0</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="33">
         <v>3.0</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="15"/>
-        <v>0.1034482759</v>
+        <v>0.1153846154</v>
       </c>
       <c r="I18" s="27">
         <f t="shared" si="16"/>
-        <v>0.8275862069</v>
+        <v>0.8076923077</v>
       </c>
       <c r="J18" s="26">
         <f t="shared" si="17"/>
@@ -2824,41 +2855,45 @@
       </c>
       <c r="K18" s="26">
         <f t="shared" si="18"/>
-        <v>4618</v>
-      </c>
-      <c r="L18" s="48">
+        <v>4056</v>
+      </c>
+      <c r="L18" s="49">
         <v>45107.0</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1153846154</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R18" s="30">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="44"/>
+        <v>0.8076923077</v>
+      </c>
+      <c r="S18" s="54">
+        <v>80.0</v>
+      </c>
       <c r="T18" s="26">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="54"/>
+        <v>320</v>
+      </c>
+      <c r="U18" s="32">
+        <v>45110.0</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -2876,27 +2911,27 @@
         <v>12.0</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="33">
         <v>5.0</v>
       </c>
       <c r="G19" s="26">
         <f t="shared" si="14"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="15"/>
-        <v>0.1724137931</v>
+        <v>0.1923076923</v>
       </c>
       <c r="I19" s="27">
         <f t="shared" si="16"/>
@@ -2908,41 +2943,45 @@
       </c>
       <c r="K19" s="26">
         <f t="shared" si="18"/>
-        <v>5526</v>
-      </c>
-      <c r="L19" s="48">
+        <v>4964</v>
+      </c>
+      <c r="L19" s="49">
         <v>45107.0</v>
       </c>
       <c r="M19" s="29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N19" s="26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O19" s="30">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1923076923</v>
       </c>
       <c r="P19" s="29">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R19" s="30">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="54">
+        <v>60.0</v>
+      </c>
       <c r="T19" s="26">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="54"/>
+        <v>380</v>
+      </c>
+      <c r="U19" s="32">
+        <v>45110.0</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="AB19" s="4"/>
@@ -2963,23 +3002,23 @@
       <c r="E20" s="24"/>
       <c r="F20" s="3">
         <f>SUM(F15:F19)</f>
-        <v>29</v>
-      </c>
-      <c r="G20" s="42"/>
+        <v>26</v>
+      </c>
+      <c r="G20" s="43"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="54"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="56"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="AB20" s="4"/>
@@ -2999,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -3051,12 +3090,14 @@
         <v>15</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="24" t="s">
         <v>29</v>
       </c>
@@ -3064,58 +3105,62 @@
         <v>3.0</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" ref="G22:G28" si="26">F22+G21</f>
+        <f t="shared" ref="G22:G29" si="26">F22+G21</f>
         <v>3</v>
       </c>
       <c r="H22" s="27">
-        <f t="shared" ref="H22:H28" si="27">F22/$G$28</f>
-        <v>0.08108108108</v>
+        <f t="shared" ref="H22:H29" si="27">F22/$G$29</f>
+        <v>0.08823529412</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:I28" si="28">H22+I21</f>
-        <v>0.08108108108</v>
+        <f t="shared" ref="I22:I29" si="28">H22+I21</f>
+        <v>0.08823529412</v>
       </c>
       <c r="J22" s="26">
-        <f t="shared" ref="J22:J28" si="29">IF(F22=1,$Z$10,IF(F22=2,$Z$11,IF(F22=3,$Z$12,IF(F22=5,$Z$13,IF(F22=8,$Z$14,$Z$15)))))</f>
+        <f t="shared" ref="J22:J29" si="29">IF(F22=1,$Z$10,IF(F22=2,$Z$11,IF(F22=3,$Z$12,IF(F22=5,$Z$13,IF(F22=8,$Z$14,$Z$15)))))</f>
         <v>770</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" ref="K22:K28" si="30">J22+K21</f>
+        <f t="shared" ref="K22:K29" si="30">J22+K21</f>
         <v>770</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="57">
         <v>45111.0</v>
       </c>
       <c r="M22" s="29">
-        <f t="shared" ref="M22:M28" si="31">IF(C22="Complete",F22,0)</f>
-        <v>0</v>
+        <f t="shared" ref="M22:M29" si="31">IF(C22="Complete",F22,0)</f>
+        <v>3</v>
       </c>
       <c r="N22" s="26">
-        <f t="shared" ref="N22:N28" si="32">M22+N21</f>
-        <v>0</v>
+        <f t="shared" ref="N22:N29" si="32">M22+N21</f>
+        <v>3</v>
       </c>
       <c r="O22" s="30">
-        <f t="shared" ref="O22:O28" si="33">N22/$G$28</f>
-        <v>0</v>
+        <f t="shared" ref="O22:O29" si="33">N22/$G$29</f>
+        <v>0.08823529412</v>
       </c>
       <c r="P22" s="29">
-        <f t="shared" ref="P22:P28" si="34">IF(C22="Complete",F22,IF(C22="Review",F22,0))</f>
-        <v>0</v>
+        <f t="shared" ref="P22:P29" si="34">IF(C22="Complete",F22,IF(C22="Review",F22,0))</f>
+        <v>3</v>
       </c>
       <c r="Q22" s="26">
-        <f t="shared" ref="Q22:Q28" si="35">P22+Q21</f>
-        <v>0</v>
+        <f t="shared" ref="Q22:Q29" si="35">P22+Q21</f>
+        <v>3</v>
       </c>
       <c r="R22" s="30">
-        <f t="shared" ref="R22:R28" si="36">Q22/$G$28</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="3"/>
+        <f t="shared" ref="R22:R29" si="36">Q22/$G$29</f>
+        <v>0.08823529412</v>
+      </c>
+      <c r="S22" s="24">
+        <v>45.0</v>
+      </c>
       <c r="T22" s="26">
-        <f t="shared" ref="T22:T28" si="37">S22+T21</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="57"/>
+        <f t="shared" ref="T22:T29" si="37">S22+T21</f>
+        <v>45</v>
+      </c>
+      <c r="U22" s="58">
+        <v>45111.0</v>
+      </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="AB22" s="4"/>
@@ -3130,17 +3175,16 @@
       <c r="AO22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="21">
-        <f>SUM(A26+1)</f>
-        <v>17</v>
-      </c>
+      <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="24" t="s">
         <v>29</v>
       </c>
@@ -3153,11 +3197,11 @@
       </c>
       <c r="H23" s="27">
         <f t="shared" si="27"/>
-        <v>0.1351351351</v>
+        <v>0.1470588235</v>
       </c>
       <c r="I23" s="27">
         <f t="shared" si="28"/>
-        <v>0.2162162162</v>
+        <v>0.2352941176</v>
       </c>
       <c r="J23" s="26">
         <f t="shared" si="29"/>
@@ -3167,39 +3211,43 @@
         <f t="shared" si="30"/>
         <v>1678</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="57">
         <v>45111.0</v>
       </c>
       <c r="M23" s="29">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N23" s="26">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O23" s="30">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.2352941176</v>
       </c>
       <c r="P23" s="29">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="26">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="3"/>
+        <v>0.2352941176</v>
+      </c>
+      <c r="S23" s="24">
+        <v>120.0</v>
+      </c>
       <c r="T23" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="57"/>
+        <v>165</v>
+      </c>
+      <c r="U23" s="58">
+        <v>45111.0</v>
+      </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="AB23" s="4"/>
@@ -3215,75 +3263,81 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21">
-        <f>SUM(A23+1)</f>
-        <v>18</v>
+        <f>SUM(A27+1)</f>
+        <v>17</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E24" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="25">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G24" s="26">
         <f t="shared" si="26"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="27"/>
-        <v>0.08108108108</v>
+        <v>0.1470588235</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" si="28"/>
-        <v>0.2972972973</v>
+        <v>0.3823529412</v>
       </c>
       <c r="J24" s="26">
         <f t="shared" si="29"/>
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="K24" s="26">
         <f t="shared" si="30"/>
-        <v>2448</v>
-      </c>
-      <c r="L24" s="56">
+        <v>2586</v>
+      </c>
+      <c r="L24" s="57">
         <v>45111.0</v>
       </c>
       <c r="M24" s="29">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N24" s="26">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O24" s="30">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.3823529412</v>
       </c>
       <c r="P24" s="29">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="26">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R24" s="30">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="3"/>
+        <v>0.3823529412</v>
+      </c>
+      <c r="S24" s="24">
+        <v>55.0</v>
+      </c>
       <c r="T24" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="57"/>
+        <v>220</v>
+      </c>
+      <c r="U24" s="58">
+        <v>45111.0</v>
+      </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="AB24" s="4"/>
@@ -3298,21 +3352,24 @@
       <c r="AO24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>56</v>
+      <c r="A25" s="21">
+        <f>SUM(A24+1)</f>
+        <v>18</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="25">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G25" s="26">
         <f t="shared" si="26"/>
@@ -3320,53 +3377,57 @@
       </c>
       <c r="H25" s="27">
         <f t="shared" si="27"/>
-        <v>0.1351351351</v>
+        <v>0.08823529412</v>
       </c>
       <c r="I25" s="27">
         <f t="shared" si="28"/>
-        <v>0.4324324324</v>
+        <v>0.4705882353</v>
       </c>
       <c r="J25" s="26">
         <f t="shared" si="29"/>
-        <v>908</v>
+        <v>770</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="30"/>
         <v>3356</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="57">
         <v>45111.0</v>
       </c>
       <c r="M25" s="29">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="26">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O25" s="30">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.4705882353</v>
       </c>
       <c r="P25" s="29">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="26">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R25" s="30">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="3"/>
+        <v>0.4705882353</v>
+      </c>
+      <c r="S25" s="24">
+        <v>35.0</v>
+      </c>
       <c r="T25" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="57"/>
+        <v>255</v>
+      </c>
+      <c r="U25" s="58">
+        <v>45111.0</v>
+      </c>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="AB25" s="4"/>
@@ -3381,76 +3442,81 @@
       <c r="AO25" s="4"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="21">
-        <f>SUM(A22+1)</f>
-        <v>16</v>
+      <c r="A26" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E26" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="25">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G26" s="26">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="27"/>
-        <v>0.08108108108</v>
+        <v>0.1470588235</v>
       </c>
       <c r="I26" s="27">
         <f t="shared" si="28"/>
-        <v>0.5135135135</v>
+        <v>0.6176470588</v>
       </c>
       <c r="J26" s="26">
         <f t="shared" si="29"/>
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="30"/>
-        <v>4126</v>
-      </c>
-      <c r="L26" s="56">
+        <v>4264</v>
+      </c>
+      <c r="L26" s="57">
         <v>45111.0</v>
       </c>
       <c r="M26" s="29">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N26" s="26">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O26" s="30">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.6176470588</v>
       </c>
       <c r="P26" s="29">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="26">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R26" s="30">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>0.6176470588</v>
+      </c>
+      <c r="S26" s="24">
+        <v>60.0</v>
+      </c>
       <c r="T26" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="57"/>
+        <v>315</v>
+      </c>
+      <c r="U26" s="58">
+        <v>45111.0</v>
+      </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="AB26" s="4"/>
@@ -3466,75 +3532,81 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21">
-        <f>SUM(A24+1)</f>
-        <v>19</v>
+        <f>SUM(A22+1)</f>
+        <v>16</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="25">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" s="26">
         <f t="shared" si="26"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H27" s="27">
         <f t="shared" si="27"/>
-        <v>0.3513513514</v>
+        <v>0.08823529412</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" si="28"/>
-        <v>0.8648648649</v>
+        <v>0.7058823529</v>
       </c>
       <c r="J27" s="26">
         <f t="shared" si="29"/>
-        <v>2370</v>
+        <v>770</v>
       </c>
       <c r="K27" s="26">
         <f t="shared" si="30"/>
-        <v>6496</v>
-      </c>
-      <c r="L27" s="56">
+        <v>5034</v>
+      </c>
+      <c r="L27" s="57">
         <v>45111.0</v>
       </c>
       <c r="M27" s="29">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="26">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O27" s="30">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.7058823529</v>
       </c>
       <c r="P27" s="29">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="26">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R27" s="30">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="3"/>
+        <v>0.7058823529</v>
+      </c>
+      <c r="S27" s="24">
+        <v>40.0</v>
+      </c>
       <c r="T27" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="57"/>
+        <v>355</v>
+      </c>
+      <c r="U27" s="58">
+        <v>45111.0</v>
+      </c>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="AB27" s="4"/>
@@ -3550,16 +3622,18 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21">
-        <f t="shared" ref="A28:A32" si="38">SUM(A27+1)</f>
-        <v>20</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>59</v>
+        <f>SUM(A25+1)</f>
+        <v>19</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="E28" s="24" t="s">
         <v>29</v>
       </c>
@@ -3568,15 +3642,15 @@
       </c>
       <c r="G28" s="26">
         <f t="shared" si="26"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="27"/>
-        <v>0.1351351351</v>
+        <v>0.1470588235</v>
       </c>
       <c r="I28" s="27">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.8529411765</v>
       </c>
       <c r="J28" s="26">
         <f t="shared" si="29"/>
@@ -3584,41 +3658,45 @@
       </c>
       <c r="K28" s="26">
         <f t="shared" si="30"/>
-        <v>7404</v>
-      </c>
-      <c r="L28" s="56">
+        <v>5942</v>
+      </c>
+      <c r="L28" s="57">
         <v>45111.0</v>
       </c>
       <c r="M28" s="29">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="26">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O28" s="30">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.8529411765</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="26">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R28" s="30">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>0.8529411765</v>
+      </c>
+      <c r="S28" s="24">
+        <v>70.0</v>
+      </c>
       <c r="T28" s="26">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="57"/>
+        <v>425</v>
+      </c>
+      <c r="U28" s="58">
+        <v>45112.0</v>
+      </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="AB28" s="4"/>
@@ -3634,31 +3712,81 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21">
-        <f t="shared" si="38"/>
-        <v>21</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f>SUM(F22:F28)</f>
-        <v>37</v>
-      </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="57"/>
+        <f t="shared" ref="A29:A30" si="38">SUM(A28+1)</f>
+        <v>20</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="26"/>
+        <v>34</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="27"/>
+        <v>0.1470588235</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
+        <f t="shared" si="29"/>
+        <v>908</v>
+      </c>
+      <c r="K29" s="26">
+        <f t="shared" si="30"/>
+        <v>6850</v>
+      </c>
+      <c r="L29" s="57">
+        <v>45111.0</v>
+      </c>
+      <c r="M29" s="29">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="N29" s="26">
+        <f t="shared" si="32"/>
+        <v>34</v>
+      </c>
+      <c r="O29" s="30">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P29" s="29">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="26">
+        <f t="shared" si="35"/>
+        <v>34</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="24">
+        <v>80.0</v>
+      </c>
+      <c r="T29" s="26">
+        <f t="shared" si="37"/>
+        <v>505</v>
+      </c>
+      <c r="U29" s="58">
+        <v>45112.0</v>
+      </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="AB29" s="4"/>
@@ -3675,28 +3803,30 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21">
         <f t="shared" si="38"/>
-        <v>22</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="24"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="58"/>
+      <c r="F30" s="3">
+        <f>SUM(F22:F29)</f>
+        <v>34</v>
+      </c>
+      <c r="G30" s="59"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="58"/>
+      <c r="N30" s="59"/>
       <c r="O30" s="27"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="58"/>
+      <c r="Q30" s="59"/>
       <c r="R30" s="27"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="57"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="61"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="AB30" s="4"/>
@@ -3711,30 +3841,27 @@
       <c r="AO30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="21">
-        <f t="shared" si="38"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="58"/>
+      <c r="N31" s="59"/>
       <c r="O31" s="27"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="58"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="27"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="57"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="61"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="AB31" s="4"/>
@@ -3750,29 +3877,29 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21">
-        <f t="shared" si="38"/>
-        <v>24</v>
+        <f t="shared" ref="A32:A33" si="39">SUM(A31+1)</f>
+        <v>1</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="58"/>
+      <c r="N32" s="59"/>
       <c r="O32" s="27"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="58"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="27"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="57"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="61"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="AB32" s="4"/>
@@ -3786,30 +3913,31 @@
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
     </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>60</v>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="21">
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="58"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="58"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="27"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="58"/>
+      <c r="Q33" s="59"/>
       <c r="R33" s="27"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="57"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="61"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="AB33" s="4"/>
@@ -3823,31 +3951,30 @@
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="21">
-        <f>SUM(A32+1)</f>
-        <v>25</v>
+    <row r="34" ht="15.0" customHeight="1">
+      <c r="A34" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="58"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="58"/>
+      <c r="N34" s="59"/>
       <c r="O34" s="27"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="58"/>
+      <c r="Q34" s="59"/>
       <c r="R34" s="27"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="57"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="61"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="AB34" s="4"/>
@@ -3863,29 +3990,29 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21">
-        <f t="shared" ref="A35:A41" si="39">SUM(A34+1)</f>
-        <v>26</v>
+        <f>SUM(A33+1)</f>
+        <v>3</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="58"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="58"/>
+      <c r="N35" s="59"/>
       <c r="O35" s="27"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="58"/>
+      <c r="Q35" s="59"/>
       <c r="R35" s="27"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="57"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="61"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="AB35" s="4"/>
@@ -3901,29 +4028,29 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21">
-        <f t="shared" si="39"/>
-        <v>27</v>
+        <f t="shared" ref="A36:A42" si="40">SUM(A35+1)</f>
+        <v>4</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="59"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="58"/>
+      <c r="N36" s="59"/>
       <c r="O36" s="27"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="58"/>
+      <c r="Q36" s="59"/>
       <c r="R36" s="27"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="57"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="61"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="AB36" s="4"/>
@@ -3939,29 +4066,29 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21">
-        <f t="shared" si="39"/>
-        <v>28</v>
+        <f t="shared" si="40"/>
+        <v>5</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="58"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="59"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="58"/>
+      <c r="N37" s="59"/>
       <c r="O37" s="27"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="58"/>
+      <c r="Q37" s="59"/>
       <c r="R37" s="27"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="57"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="61"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="AB37" s="4"/>
@@ -3977,30 +4104,31 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21">
-        <f t="shared" si="39"/>
-        <v>29</v>
+        <f t="shared" si="40"/>
+        <v>6</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="58"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="59"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="58"/>
+      <c r="N38" s="59"/>
       <c r="O38" s="27"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="58"/>
+      <c r="Q38" s="59"/>
       <c r="R38" s="27"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="57"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="61"/>
       <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4014,31 +4142,30 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21">
-        <f t="shared" si="39"/>
-        <v>30</v>
+        <f t="shared" si="40"/>
+        <v>7</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="58"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="59"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="58"/>
+      <c r="N39" s="59"/>
       <c r="O39" s="27"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="58"/>
+      <c r="Q39" s="59"/>
       <c r="R39" s="27"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="57"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="61"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4052,29 +4179,29 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21">
-        <f t="shared" si="39"/>
-        <v>31</v>
+        <f t="shared" si="40"/>
+        <v>8</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="58"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="59"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="58"/>
+      <c r="N40" s="59"/>
       <c r="O40" s="27"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="58"/>
+      <c r="Q40" s="59"/>
       <c r="R40" s="27"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="57"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="61"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="AB40" s="4"/>
@@ -4090,29 +4217,29 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21">
-        <f t="shared" si="39"/>
-        <v>32</v>
+        <f t="shared" si="40"/>
+        <v>9</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="58"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="58"/>
+      <c r="N41" s="59"/>
       <c r="O41" s="27"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="58"/>
+      <c r="Q41" s="59"/>
       <c r="R41" s="27"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="57"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="61"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="AB41" s="4"/>
@@ -4128,29 +4255,29 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21">
-        <f>33</f>
-        <v>33</v>
+        <f t="shared" si="40"/>
+        <v>10</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="58"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="58"/>
+      <c r="N42" s="59"/>
       <c r="O42" s="27"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="58"/>
+      <c r="Q42" s="59"/>
       <c r="R42" s="27"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="57"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="61"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="AB42" s="4"/>
@@ -4166,29 +4293,29 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21">
-        <f t="shared" ref="A43:A50" si="40">SUM(A42+1)</f>
-        <v>34</v>
+        <f>33</f>
+        <v>33</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="58"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="58"/>
+      <c r="N43" s="59"/>
       <c r="O43" s="27"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="58"/>
+      <c r="Q43" s="59"/>
       <c r="R43" s="27"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="57"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="61"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="AB43" s="4"/>
@@ -4204,28 +4331,29 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21">
-        <f t="shared" si="40"/>
-        <v>35</v>
-      </c>
+        <f t="shared" ref="A44:A51" si="41">SUM(A43+1)</f>
+        <v>34</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="58"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="59"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="60"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="58"/>
+      <c r="N44" s="59"/>
       <c r="O44" s="27"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="58"/>
+      <c r="Q44" s="59"/>
       <c r="R44" s="27"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="57"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="61"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="AB44" s="4"/>
@@ -4241,28 +4369,28 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21">
-        <f t="shared" si="40"/>
-        <v>36</v>
+        <f t="shared" si="41"/>
+        <v>35</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="58"/>
+      <c r="G45" s="59"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="59"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="58"/>
+      <c r="N45" s="59"/>
       <c r="O45" s="27"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="58"/>
+      <c r="Q45" s="59"/>
       <c r="R45" s="27"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="57"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="61"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="AB45" s="4"/>
@@ -4278,28 +4406,28 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21">
-        <f t="shared" si="40"/>
-        <v>37</v>
+        <f t="shared" si="41"/>
+        <v>36</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="58"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="60"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="58"/>
+      <c r="N46" s="59"/>
       <c r="O46" s="27"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="58"/>
+      <c r="Q46" s="59"/>
       <c r="R46" s="27"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="57"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="61"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="AB46" s="4"/>
@@ -4315,28 +4443,28 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21">
-        <f t="shared" si="40"/>
-        <v>38</v>
+        <f t="shared" si="41"/>
+        <v>37</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="58"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="59"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="58"/>
+      <c r="N47" s="59"/>
       <c r="O47" s="27"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="58"/>
+      <c r="Q47" s="59"/>
       <c r="R47" s="27"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="57"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="61"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="AB47" s="4"/>
@@ -4352,28 +4480,28 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21">
-        <f t="shared" si="40"/>
-        <v>39</v>
+        <f t="shared" si="41"/>
+        <v>38</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="58"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="59"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="58"/>
+      <c r="N48" s="59"/>
       <c r="O48" s="27"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="58"/>
+      <c r="Q48" s="59"/>
       <c r="R48" s="27"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="57"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="61"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="AB48" s="4"/>
@@ -4389,28 +4517,28 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21">
-        <f t="shared" si="40"/>
-        <v>40</v>
+        <f t="shared" si="41"/>
+        <v>39</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="58"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="58"/>
+      <c r="N49" s="59"/>
       <c r="O49" s="27"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="58"/>
+      <c r="Q49" s="59"/>
       <c r="R49" s="27"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="57"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="61"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="AB49" s="4"/>
@@ -4426,28 +4554,28 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21">
-        <f t="shared" si="40"/>
-        <v>41</v>
+        <f t="shared" si="41"/>
+        <v>40</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="58"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="58"/>
+      <c r="N50" s="59"/>
       <c r="O50" s="27"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="58"/>
+      <c r="Q50" s="59"/>
       <c r="R50" s="27"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="57"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="61"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="AB50" s="4"/>
@@ -4462,28 +4590,29 @@
       <c r="AO50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="21" t="s">
-        <v>61</v>
+      <c r="A51" s="21">
+        <f t="shared" si="41"/>
+        <v>41</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="58"/>
+      <c r="G51" s="59"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="59"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="58"/>
+      <c r="N51" s="59"/>
       <c r="O51" s="27"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="58"/>
+      <c r="Q51" s="59"/>
       <c r="R51" s="27"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="57"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="61"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="AB51" s="4"/>
@@ -4498,33 +4627,30 @@
       <c r="AO51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="59"/>
       <c r="R52" s="27"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="61"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4537,27 +4663,27 @@
       <c r="AO52" s="4"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
@@ -4648,16 +4774,33 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
@@ -4680,26 +4823,6 @@
       <c r="AO56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -4723,8 +4846,8 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -6613,7 +6736,6 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -13491,7 +13613,49 @@
       <c r="AN262" s="4"/>
       <c r="AO262" s="4"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="4"/>
+      <c r="O263" s="4"/>
+      <c r="P263" s="4"/>
+      <c r="Q263" s="4"/>
+      <c r="R263" s="4"/>
+      <c r="S263" s="4"/>
+      <c r="T263" s="4"/>
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+      <c r="X263" s="4"/>
+      <c r="Y263" s="4"/>
+      <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
+      <c r="AB263" s="4"/>
+      <c r="AC263" s="4"/>
+      <c r="AD263" s="4"/>
+      <c r="AE263" s="4"/>
+      <c r="AF263" s="4"/>
+      <c r="AG263" s="4"/>
+      <c r="AH263" s="4"/>
+      <c r="AI263" s="4"/>
+      <c r="AJ263" s="4"/>
+      <c r="AK263" s="4"/>
+      <c r="AL263" s="4"/>
+      <c r="AM263" s="4"/>
+      <c r="AN263" s="4"/>
+      <c r="AO263" s="4"/>
+    </row>
     <row r="264" ht="15.75" customHeight="1"/>
     <row r="265" ht="15.75" customHeight="1"/>
     <row r="266" ht="15.75" customHeight="1"/>
@@ -14271,60 +14435,61 @@
     <row r="1040" ht="15.75" customHeight="1"/>
     <row r="1041" ht="15.75" customHeight="1"/>
     <row r="1042" ht="15.75" customHeight="1"/>
+    <row r="1043" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="M1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C13 D2:D4 C15:C19 C22:C28 C53:D1042">
+  <conditionalFormatting sqref="C2:C13 D2:D4 C15:C19 C22:C29 C54:D1043">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13 D2:D4 C15:C19 C22:C28 C53:D1042">
+  <conditionalFormatting sqref="C2:C13 D2:D4 C15:C19 C22:C29 C54:D1043">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13 D2:D4 C15:C19 C22:C28 C53:D1042">
+  <conditionalFormatting sqref="C2:C13 D2:D4 C15:C19 C22:C29 C54:D1043">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Upcoming"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C13 C15:C19 C22:C28">
+  <conditionalFormatting sqref="C5:C13 C15:C19 C22:C29">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Review"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U28">
+  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U29">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>L5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U28">
+  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U29">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>L5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U28">
+  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U29">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>L5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U28">
+  <conditionalFormatting sqref="U5:U13 U15:U20 U22:U29">
     <cfRule type="containsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(U5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D5:D12 D15:D19 D22:D28">
-      <formula1>"Implementación,pruebas,ver/val,diseño,analisis,documentación"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E5:E12 E15:E19 E22:E28">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E12 E15:E19 E22:E29">
       <formula1>"David"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C5:C12 C15:C19 C22:C28">
+    <dataValidation type="list" allowBlank="1" sqref="C5:C12 C15:C19 C22:C29">
       <formula1>"Complete,In progress,Upcoming,Review"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5:D12 D15:D19 D22:D29">
+      <formula1>"Implementation,tests,ver/val,design,analysis,documentation,deploy"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -14342,413 +14507,413 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="F1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="G1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="H1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="I1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="66">
+      <c r="B2" s="68">
         <v>8.0</v>
       </c>
-      <c r="D2" s="66">
+      <c r="C2" s="68">
+        <v>8.0</v>
+      </c>
+      <c r="D2" s="68">
         <v>4.0</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="68">
         <v>8.0</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="68">
         <v>8.0</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="68">
         <v>8.0</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="68">
         <v>8.0</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="69">
         <f t="shared" ref="I2:I9" si="1">SUM(B2:H2)</f>
-        <v>44</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67">
+      <c r="A3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="68"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67">
+      <c r="A4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="68"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67">
+      <c r="A5" s="70"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6">
-      <c r="A6" s="68"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67">
+      <c r="A6" s="70"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7">
-      <c r="A7" s="68"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67">
+      <c r="A7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8">
-      <c r="A8" s="68"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67">
+      <c r="A8" s="70"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9">
-      <c r="A9" s="68"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67">
+      <c r="A9" s="70"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10">
-      <c r="A10" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="67">
+      <c r="A10" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="69">
         <f t="shared" ref="B10:I10" si="2">B11/2</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="67">
+        <v>4</v>
+      </c>
+      <c r="C10" s="69">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="69">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="69">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="69">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="69">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="69">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="69">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
+        <v>26</v>
+      </c>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="71">
+      <c r="A11" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="73">
         <f t="shared" ref="B11:I11" si="3">SUM(B2:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="71">
+        <v>8</v>
+      </c>
+      <c r="C11" s="73">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="73">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="73">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="73">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="73">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="73">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="73">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66">
         <f t="shared" ref="B12:H12" si="4">B10*60</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="64">
+        <v>240</v>
+      </c>
+      <c r="C12" s="66">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="66">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="66">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="66">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="66">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="66">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="I12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13">
-      <c r="A13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="A13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14">
-      <c r="A14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="A14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15">
-      <c r="A15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
+      <c r="A15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16">
-      <c r="A16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
+      <c r="A16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17">
-      <c r="A17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
+      <c r="A17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="64"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="24">
       <c r="I24" s="3"/>
@@ -14866,803 +15031,823 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="H1" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="M1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="77" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="82">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="C2" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="D2" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79" t="s">
+      <c r="E2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="F2" s="86" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="81" t="s">
+      <c r="G2" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="82">
-        <v>15.0</v>
-      </c>
-      <c r="D2" s="83" t="s">
+      <c r="H2" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="K2" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="88">
+      <c r="L2" s="90">
         <f t="shared" ref="L2:M2" si="1">COUNTIF(E:E,$K2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="88">
+      <c r="M2" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="80">
+      <c r="A3" s="82">
         <v>2.0</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="84">
+        <v>160.0</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="89">
-        <v>20.0</v>
-      </c>
-      <c r="D3" s="83" t="s">
+      <c r="H3" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="90" t="s">
+      <c r="K3" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="88">
+      <c r="L3" s="90">
         <f>COUNTIF(E:E,K3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="88">
+        <v>3</v>
+      </c>
+      <c r="M3" s="90">
         <f>COUNTIF(F:F,$K3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="80">
+      <c r="A4" s="82">
         <v>3.0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="84">
+        <v>120.0</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="83" t="s">
+      <c r="H4" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="90" t="s">
+      <c r="C5" s="84">
+        <v>60.0</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="80">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="81" t="s">
+      <c r="H5" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="90">
+        <f t="shared" ref="L5:L7" si="2">COUNTIF(E:E,K5)</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="90">
+        <f t="shared" ref="M5:M7" si="3">COUNTIF(F:F,$K5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="82">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="D5" s="83" t="s">
+      <c r="C6" s="84">
+        <v>240.0</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="88">
-        <f t="shared" ref="L5:L7" si="2">COUNTIF(E:E,K5)</f>
-        <v>6</v>
-      </c>
-      <c r="M5" s="88">
-        <f t="shared" ref="M5:M7" si="3">COUNTIF(F:F,$K5)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="80">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="88">
+      <c r="K6" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="90">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="82">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="84">
+        <v>60.0</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="80">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="93" t="s">
+    <row r="8">
+      <c r="A8" s="95">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="88">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="80"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="91"/>
+      <c r="C8" s="84">
+        <v>30.0</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="80"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="91"/>
+      <c r="A9" s="95">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10">
-      <c r="A10" s="80"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="91"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="92"/>
     </row>
     <row r="11">
-      <c r="A11" s="80"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="91"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="92"/>
     </row>
     <row r="12">
-      <c r="A12" s="80"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="91"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13">
-      <c r="A13" s="80"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="91"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14">
-      <c r="A14" s="80"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="91"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15">
-      <c r="A15" s="80"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="91"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16">
-      <c r="A16" s="80"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="91"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17">
-      <c r="A17" s="80"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="91"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18">
-      <c r="A18" s="80"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="91"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="91"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="92"/>
     </row>
     <row r="20">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="91"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="92"/>
     </row>
     <row r="21">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="91"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="91"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="92"/>
     </row>
     <row r="23">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="91"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="92"/>
     </row>
     <row r="24">
-      <c r="A24" s="97"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="91"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="92"/>
     </row>
     <row r="25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="91"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="91"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="92"/>
     </row>
     <row r="27">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="91"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="91"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="91"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="92"/>
     </row>
     <row r="30">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="91"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="92"/>
     </row>
     <row r="31">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="91"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="91"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="92"/>
     </row>
     <row r="33">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="91"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="91"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="91"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="92"/>
     </row>
     <row r="36">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="91"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="91"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="92"/>
     </row>
     <row r="38">
-      <c r="A38" s="97"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="91"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="92"/>
     </row>
     <row r="39">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="91"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="92"/>
     </row>
     <row r="40">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="91"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41">
-      <c r="A41" s="97"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="91"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="92"/>
     </row>
     <row r="42">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="91"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="92"/>
     </row>
     <row r="43">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="91"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="92"/>
     </row>
     <row r="44">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="91"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="92"/>
     </row>
     <row r="45">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="91"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="92"/>
     </row>
     <row r="46">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="91"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="92"/>
     </row>
     <row r="47">
-      <c r="A47" s="97"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="91"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="91"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="92"/>
     </row>
     <row r="49">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="91"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="92"/>
     </row>
     <row r="50">
-      <c r="A50" s="97"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="91"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="92"/>
     </row>
     <row r="51">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="91"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52">
-      <c r="A52" s="97"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="91"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="92"/>
     </row>
     <row r="53">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="91"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="54">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="91"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="92"/>
     </row>
     <row r="55">
-      <c r="A55" s="97"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="91"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="92"/>
     </row>
     <row r="56">
-      <c r="A56" s="97"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="91"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="92"/>
     </row>
     <row r="57">
-      <c r="A57" s="97"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="91"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="92"/>
     </row>
     <row r="58">
-      <c r="A58" s="97"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="91"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="92"/>
     </row>
     <row r="59">
-      <c r="A59" s="97"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="91"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="92"/>
     </row>
     <row r="60">
-      <c r="A60" s="97"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="91"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="92"/>
     </row>
     <row r="61">
-      <c r="A61" s="97"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="91"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="92"/>
     </row>
     <row r="62">
-      <c r="A62" s="97"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="91"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="92"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E722A242-03C8-472A-A053-EFB3281192B8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6EB8305A-EB85-4F04-9155-A670A3D45DFB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$H$56"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
